--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T07:37:47+00:00</t>
+    <t>2021-09-07T11:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T11:28:37+00:00</t>
+    <t>2021-09-16T07:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T07:55:33+00:00</t>
+    <t>2021-10-01T07:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T07:57:23+00:00</t>
+    <t>2021-10-01T08:08:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:08:42+00:00</t>
+    <t>2021-10-01T08:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-01T08:12:33+00:00</t>
+    <t>2022-06-22T18:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1919,42 +1919,42 @@
     <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.98046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="159.06640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="159.0703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="55.8046875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="173.13671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="145.8359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="145.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="504">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,396 +284,400 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>CarePlan.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>CarePlan.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>CarePlan.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>CarePlan.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>CarePlan.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CarePlan.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status {uses different ValueSet}</t>
+  </si>
+  <si>
+    <t>.statusCode planned = new active = active completed = completed</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CarePlan.title</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>CarePlan.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>CarePlan.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>CarePlan.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>CarePlan.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>CarePlan.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CarePlan.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan)
-</t>
-  </si>
-  <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status {uses different ValueSet}</t>
-  </si>
-  <si>
-    <t>.statusCode planned = new active = active completed = completed</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PTH-5</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CarePlan.title</t>
   </si>
   <si>
     <t>Human-friendly name for the care plan</t>
@@ -4105,13 +4109,13 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4191,7 +4195,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4214,17 +4218,17 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>79</v>
@@ -4273,7 +4277,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4294,7 +4298,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4302,11 +4306,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4325,13 +4329,13 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4382,7 +4386,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>86</v>
@@ -4397,21 +4401,21 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4434,16 +4438,16 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4493,7 +4497,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4508,25 +4512,25 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4545,19 +4549,19 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>79</v>
@@ -4606,7 +4610,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4621,21 +4625,21 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4658,13 +4662,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4715,7 +4719,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4733,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4744,7 +4748,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4773,7 +4777,7 @@
         <v>133</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>135</v>
@@ -4814,19 +4818,19 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4844,7 +4848,7 @@
         <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
@@ -4855,7 +4859,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4878,16 +4882,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4937,7 +4941,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4946,7 +4950,7 @@
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -4955,18 +4959,18 @@
         <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4989,23 +4993,23 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>79</v>
@@ -5050,7 +5054,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5059,7 +5063,7 @@
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -5068,22 +5072,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5102,13 +5106,13 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5159,7 +5163,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5174,13 +5178,13 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5188,7 +5192,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5211,16 +5215,16 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5270,7 +5274,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5285,13 +5289,13 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5299,7 +5303,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5322,16 +5326,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5381,7 +5385,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5410,7 +5414,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5433,17 +5437,17 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5492,7 +5496,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5507,13 +5511,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5521,7 +5525,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5544,19 +5548,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5605,7 +5609,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5620,21 +5624,21 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5657,19 +5661,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5718,7 +5722,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5733,7 +5737,7 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
@@ -5747,7 +5751,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5770,19 +5774,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -5831,7 +5835,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5849,18 +5853,18 @@
         <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5883,17 +5887,17 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -5942,7 +5946,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5954,13 +5958,13 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
@@ -5971,7 +5975,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5994,13 +5998,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6051,7 +6055,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -6069,7 +6073,7 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -6080,7 +6084,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6109,7 +6113,7 @@
         <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>135</v>
@@ -6162,7 +6166,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -6180,7 +6184,7 @@
         <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6191,11 +6195,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6217,10 +6221,10 @@
         <v>132</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>135</v>
@@ -6275,7 +6279,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6304,7 +6308,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6330,13 +6334,13 @@
         <v>202</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6365,10 +6369,10 @@
         <v>207</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>79</v>
@@ -6386,7 +6390,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6415,7 +6419,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6438,19 +6442,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>79</v>
@@ -6499,7 +6503,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6514,10 +6518,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -6528,7 +6532,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6551,19 +6555,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6612,7 +6616,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6630,18 +6634,18 @@
         <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6664,19 +6668,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6725,7 +6729,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6734,16 +6738,16 @@
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -6754,7 +6758,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6777,17 +6781,17 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6836,7 +6840,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6845,7 +6849,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6854,7 +6858,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6865,7 +6869,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6888,13 +6892,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6945,7 +6949,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6963,7 +6967,7 @@
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6974,7 +6978,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7000,10 +7004,10 @@
         <v>132</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7042,17 +7046,17 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -7081,10 +7085,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>79</v>
@@ -7106,13 +7110,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7163,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7172,7 +7176,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7192,11 +7196,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7218,10 +7222,10 @@
         <v>132</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>135</v>
@@ -7276,7 +7280,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7305,7 +7309,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7331,14 +7335,14 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7348,7 +7352,7 @@
         <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>79</v>
@@ -7366,10 +7370,10 @@
         <v>187</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7387,7 +7391,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7405,7 +7409,7 @@
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -7416,7 +7420,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7439,17 +7443,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7498,7 +7502,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7527,7 +7531,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7556,13 +7560,13 @@
         <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>162</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7611,7 +7615,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7640,7 +7644,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7666,16 +7670,16 @@
         <v>202</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7685,7 +7689,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>79</v>
@@ -7703,10 +7707,10 @@
         <v>207</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7724,7 +7728,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7739,21 +7743,21 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7779,13 +7783,13 @@
         <v>202</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7814,10 +7818,10 @@
         <v>207</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7835,7 +7839,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7850,7 +7854,7 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -7864,7 +7868,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7887,16 +7891,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7946,7 +7950,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7961,7 +7965,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -7975,7 +7979,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7998,17 +8002,17 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>79</v>
@@ -8057,7 +8061,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8079,7 @@
         <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8086,7 +8090,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8112,16 +8116,16 @@
         <v>106</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8149,10 +8153,10 @@
         <v>187</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8170,7 +8174,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>86</v>
@@ -8185,21 +8189,21 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8225,13 +8229,13 @@
         <v>202</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8281,7 +8285,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8296,7 +8300,7 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8310,7 +8314,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8333,70 +8337,70 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8411,10 +8415,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8425,7 +8429,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8448,17 +8452,17 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
@@ -8507,7 +8511,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8522,21 +8526,21 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8559,19 +8563,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8620,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8638,18 +8642,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8672,19 +8676,19 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8733,7 +8737,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8748,21 +8752,21 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8788,10 +8792,10 @@
         <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8821,26 +8825,26 @@
         <v>207</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8858,21 +8862,21 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>79</v>
@@ -8897,10 +8901,10 @@
         <v>202</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8930,10 +8934,10 @@
         <v>207</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
@@ -8951,7 +8955,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8969,22 +8973,22 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9003,17 +9007,17 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>79</v>
@@ -9062,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9080,18 +9084,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9114,13 +9118,13 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9171,7 +9175,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9189,18 +9193,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9223,13 +9227,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9280,7 +9284,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9298,18 +9302,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9332,17 +9336,17 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9391,7 +9395,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9406,16 +9410,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,33 +422,51 @@
     <t>CarePlan.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>artStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-casereporting/StructureDefinition/art-status}
+</t>
+  </si>
+  <si>
+    <t>ART Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -456,6 +474,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -811,17 +832,13 @@
     <t>CarePlan.period.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1198,12 +1215,6 @@
     <t>CarePlan.activity.detail.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>artRegimenLine</t>
   </si>
   <si>
@@ -1212,10 +1223,6 @@
   </si>
   <si>
     <t>ART Regimen Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
@@ -1429,10 +1436,6 @@
     <t>CarePlan.activity.detail.scheduled[x]</t>
   </si>
   <si>
-    <t>Timing
-Periodstring</t>
-  </si>
-  <si>
     <t>When activity is to occur</t>
   </si>
   <si>
@@ -1442,7 +1445,29 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>TQ1</t>
+  </si>
+  <si>
+    <t>scheduledPeriod</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].id</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].extension</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].start</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x].end</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.location</t>
@@ -1508,13 +1533,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1911,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1920,7 +1938,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.3359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2859,11 +2877,11 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>78</v>
@@ -2878,17 +2896,15 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>79</v>
@@ -2925,16 +2941,14 @@
         <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>136</v>
@@ -2955,7 +2969,7 @@
         <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>79</v>
@@ -2964,45 +2978,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3050,7 +3062,7 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -3059,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>137</v>
@@ -3068,7 +3080,7 @@
         <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
@@ -3079,11 +3091,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3096,25 +3108,25 @@
         <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>79</v>
@@ -3163,7 +3175,7 @@
         <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -3175,24 +3187,24 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3215,16 +3227,20 @@
         <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3272,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3287,16 +3303,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3324,17 +3340,15 @@
         <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M13" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>79</v>
@@ -3401,7 +3415,7 @@
         <v>163</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
@@ -3412,11 +3426,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>165</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3435,18 +3449,18 @@
         <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3494,7 +3508,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3509,10 +3523,10 @@
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
@@ -3523,11 +3537,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3546,7 +3560,7 @@
         <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>173</v>
@@ -3554,11 +3568,9 @@
       <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>79</v>
@@ -3607,7 +3619,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3622,7 +3634,7 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3636,11 +3648,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3659,7 +3671,7 @@
         <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>179</v>
@@ -3670,7 +3682,9 @@
       <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3733,7 +3747,7 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3747,7 +3761,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3755,35 +3769,33 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3807,37 +3819,37 @@
         <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>79</v>
@@ -3846,21 +3858,21 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>189</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3886,16 +3898,16 @@
         <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>79</v>
@@ -3920,13 +3932,13 @@
         <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>79</v>
@@ -3944,7 +3956,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3959,21 +3971,21 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3981,34 +3993,34 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>79</v>
@@ -4033,13 +4045,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -4057,13 +4069,13 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>79</v>
@@ -4072,13 +4084,13 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4086,7 +4098,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4097,7 +4109,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -4109,16 +4121,20 @@
         <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4142,13 +4158,13 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>79</v>
@@ -4166,13 +4182,13 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>79</v>
@@ -4187,7 +4203,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4195,7 +4211,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4218,18 +4234,16 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>218</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4277,7 +4291,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4298,7 +4312,7 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4306,15 +4320,15 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>86</v>
@@ -4329,16 +4343,18 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4386,10 +4402,10 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4401,29 +4417,29 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
@@ -4438,17 +4454,15 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>79</v>
@@ -4497,10 +4511,10 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4512,25 +4526,25 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4549,20 +4563,18 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4610,7 +4622,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4625,25 +4637,25 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4659,19 +4671,23 @@
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4719,7 +4735,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4731,35 +4747,35 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>79</v>
@@ -4771,17 +4787,15 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>79</v>
@@ -4818,38 +4832,38 @@
         <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AL26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4857,41 +4871,41 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4929,48 +4943,48 @@
         <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4978,13 +4992,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -4993,24 +5007,22 @@
         <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>273</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5054,7 +5066,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -5063,7 +5075,7 @@
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -5072,22 +5084,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5106,20 +5118,24 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5163,7 +5179,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -5172,31 +5188,31 @@
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5215,17 +5231,15 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -5274,7 +5288,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5289,13 +5303,13 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -5303,7 +5317,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5314,7 +5328,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>79</v>
@@ -5323,19 +5337,19 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5385,13 +5399,13 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>79</v>
@@ -5400,13 +5414,13 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -5414,7 +5428,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5437,7 +5451,7 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>297</v>
@@ -5445,10 +5459,10 @@
       <c r="L32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>299</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>79</v>
       </c>
@@ -5496,7 +5510,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5511,13 +5525,13 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>300</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5525,7 +5539,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5545,22 +5559,20 @@
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>79</v>
@@ -5609,7 +5621,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5624,21 +5636,21 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5658,22 +5670,22 @@
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5722,7 +5734,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5737,21 +5749,21 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5774,19 +5786,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>79</v>
@@ -5835,7 +5847,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5850,21 +5862,21 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5872,13 +5884,13 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5887,17 +5899,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>79</v>
@@ -5946,7 +5960,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5958,24 +5972,24 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5983,13 +5997,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -5998,16 +6012,18 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6055,25 +6071,25 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -6084,18 +6100,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>79</v>
@@ -6107,17 +6123,15 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>79</v>
@@ -6166,25 +6180,25 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
@@ -6195,11 +6209,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6212,26 +6226,24 @@
         <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6279,7 +6291,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6297,7 +6309,7 @@
         <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
@@ -6312,7 +6324,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6325,24 +6337,26 @@
         <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6366,31 +6380,31 @@
         <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6402,13 +6416,13 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6417,9 +6431,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6430,10 +6444,10 @@
         <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6442,20 +6456,18 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>313</v>
+        <v>208</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6479,13 +6491,13 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>79</v>
@@ -6503,7 +6515,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6518,10 +6530,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -6532,7 +6544,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6555,19 +6567,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>79</v>
@@ -6616,7 +6628,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6631,21 +6643,21 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6656,7 +6668,7 @@
         <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6668,19 +6680,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>79</v>
@@ -6729,36 +6741,36 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6766,13 +6778,13 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6781,17 +6793,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>79</v>
@@ -6840,7 +6854,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6849,16 +6863,16 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6867,7 +6881,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>376</v>
       </c>
@@ -6877,13 +6891,13 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6892,16 +6906,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>378</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6949,7 +6965,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6958,16 +6974,16 @@
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>253</v>
+        <v>380</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6978,7 +6994,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6986,11 +7002,11 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7001,13 +7017,13 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7046,36 +7062,38 @@
         <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7083,13 +7101,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7098,10 +7114,10 @@
         <v>86</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7110,13 +7126,13 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>382</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>133</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7155,19 +7171,17 @@
         <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -7176,7 +7190,7 @@
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>137</v>
@@ -7194,45 +7208,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="C48" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>132</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7280,7 +7292,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>77</v>
@@ -7289,7 +7301,7 @@
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>137</v>
@@ -7298,7 +7310,7 @@
         <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
@@ -7309,40 +7321,42 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>147</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>79</v>
@@ -7352,7 +7366,7 @@
         <v>79</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>79</v>
@@ -7367,13 +7381,13 @@
         <v>79</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7391,25 +7405,25 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>392</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
@@ -7420,7 +7434,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7431,7 +7445,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -7443,17 +7457,17 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>79</v>
@@ -7463,7 +7477,7 @@
         <v>79</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>79</v>
@@ -7478,13 +7492,13 @@
         <v>79</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>79</v>
@@ -7502,13 +7516,13 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>79</v>
@@ -7517,10 +7531,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>158</v>
+        <v>394</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7531,7 +7545,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7554,19 +7568,17 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>396</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>79</v>
@@ -7615,7 +7627,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7633,7 +7645,7 @@
         <v>163</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7655,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>79</v>
@@ -7667,19 +7679,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>402</v>
+        <v>168</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>79</v>
@@ -7689,7 +7701,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>79</v>
@@ -7704,13 +7716,13 @@
         <v>79</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>79</v>
@@ -7734,7 +7746,7 @@
         <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>79</v>
@@ -7743,21 +7755,21 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>407</v>
+        <v>169</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>164</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7768,7 +7780,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -7780,18 +7792,20 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>79</v>
       </c>
@@ -7800,7 +7814,7 @@
         <v>79</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>79</v>
@@ -7815,13 +7829,13 @@
         <v>79</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>79</v>
@@ -7839,13 +7853,13 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
@@ -7854,21 +7868,21 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7891,16 +7905,16 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>418</v>
+        <v>208</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7926,13 +7940,13 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>79</v>
@@ -7950,7 +7964,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7965,7 +7979,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -7979,7 +7993,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8002,18 +8016,18 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>425</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8061,7 +8075,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -8076,10 +8090,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
@@ -8088,9 +8102,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8098,34 +8112,32 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>79</v>
@@ -8150,13 +8162,13 @@
         <v>79</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>79</v>
@@ -8174,13 +8186,13 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>79</v>
@@ -8189,21 +8201,21 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8211,33 +8223,35 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8261,13 +8275,13 @@
         <v>79</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>434</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>79</v>
@@ -8285,10 +8299,10 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
@@ -8300,21 +8314,21 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8331,32 +8345,28 @@
         <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>442</v>
+        <v>208</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P58" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8400,7 +8410,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8415,10 +8425,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
@@ -8429,7 +8439,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8446,28 +8456,32 @@
         <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="Q59" t="s" s="2">
         <v>79</v>
       </c>
@@ -8511,7 +8525,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8526,21 +8540,21 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>245</v>
+        <v>450</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>246</v>
+        <v>451</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8563,19 +8577,17 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8612,19 +8624,17 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8639,23 +8649,25 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>462</v>
+        <v>252</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>79</v>
       </c>
@@ -8664,7 +8676,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8676,19 +8688,17 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>465</v>
+        <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -8737,13 +8747,13 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8752,21 +8762,21 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>469</v>
+        <v>251</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>470</v>
+        <v>252</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8774,7 +8784,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>86</v>
@@ -8789,13 +8799,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>473</v>
+        <v>256</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>257</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8822,29 +8832,31 @@
         <v>79</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AB62" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AC62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>472</v>
+        <v>258</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8856,40 +8868,38 @@
         <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>479</v>
+        <v>259</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -8898,15 +8908,17 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>473</v>
+        <v>261</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>79</v>
@@ -8931,64 +8943,64 @@
         <v>79</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="AC63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>472</v>
+        <v>264</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>479</v>
+        <v>259</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9004,21 +9016,21 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>484</v>
+        <v>266</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>485</v>
+        <v>267</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M64" s="2"/>
-      <c r="N64" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9066,7 +9078,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>482</v>
+        <v>270</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -9075,7 +9087,7 @@
         <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
@@ -9084,18 +9096,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>488</v>
+        <v>272</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>489</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9109,29 +9121,33 @@
         <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>484</v>
+        <v>266</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>491</v>
+        <v>275</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9175,7 +9191,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>490</v>
+        <v>279</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -9184,7 +9200,7 @@
         <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
@@ -9193,18 +9209,18 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>493</v>
+        <v>280</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>494</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9227,16 +9243,20 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>212</v>
+        <v>465</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9284,7 +9304,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9302,18 +9322,18 @@
         <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>362</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9336,17 +9356,19 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>356</v>
+        <v>473</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>79</v>
@@ -9395,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9410,20 +9432,678 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AB68" s="2"/>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>362</v>
+      <c r="K73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM67">
+  <autoFilter ref="A1:AM73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9433,7 +10113,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI66">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="511">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1436,6 +1436,10 @@
     <t>CarePlan.activity.detail.scheduled[x]</t>
   </si>
   <si>
+    <t>Timing
+Periodstring</t>
+  </si>
+  <si>
     <t>When activity is to occur</t>
   </si>
   <si>
@@ -1449,9 +1453,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>TQ1</t>
   </si>
   <si>
@@ -1533,6 +1534,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -8577,17 +8581,17 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>246</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8624,14 +8628,14 @@
         <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>457</v>
+        <v>135</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>452</v>
@@ -8691,14 +8695,14 @@
         <v>246</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>79</v>
@@ -9514,14 +9518,14 @@
         <v>79</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AB68" s="2"/>
       <c r="AC68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="AE68" t="s" s="2">
         <v>480</v>
@@ -9542,13 +9546,13 @@
         <v>79</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69">
@@ -9556,7 +9560,7 @@
         <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>79</v>
@@ -9653,22 +9657,22 @@
         <v>79</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9687,17 +9691,17 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9750,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9764,18 +9768,18 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9798,13 +9802,13 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9855,7 +9859,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9873,18 +9877,18 @@
         <v>79</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9910,10 +9914,10 @@
         <v>218</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9964,7 +9968,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9982,7 +9986,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9993,7 +9997,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10019,14 +10023,14 @@
         <v>361</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>79</v>
@@ -10075,7 +10079,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -10090,7 +10094,7 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>366</v>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
